--- a/KISEC_Softwae_Tools.xlsx
+++ b/KISEC_Softwae_Tools.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\01_FuE_Projekte\_KISEC-HTWK\03_Output_IBH\01_Softwareentwicklung\Entwicklung im Team\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\KISEC\code\github\SoftTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3F2ADE-6135-4D20-BE7E-F18A103E57E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46560" yWindow="630" windowWidth="14730" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46560" yWindow="630" windowWidth="14730" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>Sylvio (IBH)</t>
   </si>
@@ -88,12 +87,42 @@
   </si>
   <si>
     <t>Betriebssystem Win10</t>
+  </si>
+  <si>
+    <t>MS Visual Studio 2019</t>
+  </si>
+  <si>
+    <t>Matlab</t>
+  </si>
+  <si>
+    <t>x (?)</t>
+  </si>
+  <si>
+    <t>royale</t>
+  </si>
+  <si>
+    <t>computer vision toolbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">robotics system toolbox </t>
+  </si>
+  <si>
+    <t>ToF Sensor</t>
+  </si>
+  <si>
+    <t>Roboterdynamik</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>Roboterregelung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,23 +442,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -440,12 +469,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -453,33 +482,55 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -487,7 +538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -495,20 +546,47 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -516,7 +594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -524,7 +602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -532,15 +610,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -548,19 +629,54 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>18</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>19</v>
       </c>
       <c r="B32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
         <v>7</v>
       </c>
     </row>

--- a/KISEC_Softwae_Tools.xlsx
+++ b/KISEC_Softwae_Tools.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>Sylvio (IBH)</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Roboterregelung</t>
+  </si>
+  <si>
+    <t>Testcommit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x </t>
   </si>
 </sst>
 </file>
@@ -443,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,6 +686,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
